--- a/TestFiles/sample1/words/word_20.xlsx
+++ b/TestFiles/sample1/words/word_20.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4721279000000038</v>
+        <v>0.4721278999999967</v>
       </c>
       <c r="B2">
-        <v>0.5919901999999979</v>
+        <v>0.5919901999999908</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.6636590000000027</v>
+        <v>0.6636589999999956</v>
       </c>
       <c r="B3">
-        <v>0.7841390000000033</v>
+        <v>0.7841389999999961</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8480506000000005</v>
+        <v>0.8480505999999934</v>
       </c>
       <c r="B4">
-        <v>0.9355578999999992</v>
+        <v>0.9355578999999921</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.199939700000002</v>
+        <v>1.199939699999995</v>
       </c>
       <c r="B5">
-        <v>1.306597799999999</v>
+        <v>1.306597799999992</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -429,10 +429,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.440998100000002</v>
+        <v>1.440998099999995</v>
       </c>
       <c r="B6">
-        <v>1.599979699999999</v>
+        <v>1.599979699999992</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -440,10 +440,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.712291800000003</v>
+        <v>1.712291799999996</v>
       </c>
       <c r="B7">
-        <v>1.807787500000003</v>
+        <v>1.807787499999996</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
